--- a/02_programme_task/xlsx_out/Proverbs.xlsx
+++ b/02_programme_task/xlsx_out/Proverbs.xlsx
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Proverbs 1:216</t>
+          <t>Proverbs 1:2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Proverbs 1:316</t>
+          <t>Proverbs 1:3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Proverbs 1:416</t>
+          <t>Proverbs 1:4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Proverbs 1:516</t>
+          <t>Proverbs 1:5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Proverbs 1:616</t>
+          <t>Proverbs 1:6</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Proverbs 1:716</t>
+          <t>Proverbs 1:7</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Proverbs 1:816</t>
+          <t>Proverbs 1:8</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Proverbs 1:916</t>
+          <t>Proverbs 1:9</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Proverbs 1:1016</t>
+          <t>Proverbs 1:10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Proverbs 1:1116</t>
+          <t>Proverbs 1:11</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Proverbs 1:1216</t>
+          <t>Proverbs 1:12</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Proverbs 1:1316</t>
+          <t>Proverbs 1:13</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Proverbs 1:1416</t>
+          <t>Proverbs 1:14</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Proverbs 1:1516</t>
+          <t>Proverbs 1:15</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Proverbs 1:1616</t>
+          <t>Proverbs 1:16</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Proverbs 1:1716</t>
+          <t>Proverbs 1:17</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Proverbs 1:1816</t>
+          <t>Proverbs 1:18</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Proverbs 1:1916</t>
+          <t>Proverbs 1:19</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Proverbs 1:2016</t>
+          <t>Proverbs 1:20</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Proverbs 1:2116</t>
+          <t>Proverbs 1:21</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Proverbs 1:2216</t>
+          <t>Proverbs 1:22</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Proverbs 1:2316</t>
+          <t>Proverbs 1:23</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Proverbs 1:2416</t>
+          <t>Proverbs 1:24</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Proverbs 1:2516</t>
+          <t>Proverbs 1:25</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Proverbs 1:2616</t>
+          <t>Proverbs 1:26</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Proverbs 1:2716</t>
+          <t>Proverbs 1:27</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Proverbs 1:2816</t>
+          <t>Proverbs 1:28</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Proverbs 1:2916</t>
+          <t>Proverbs 1:29</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Proverbs 1:3016</t>
+          <t>Proverbs 1:30</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Proverbs 1:3116</t>
+          <t>Proverbs 1:31</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Proverbs 1:3216</t>
+          <t>Proverbs 1:32</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Proverbs 1:3316</t>
+          <t>Proverbs 1:33</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Proverbs 2:116</t>
+          <t>Proverbs 2:1</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Proverbs 2:216</t>
+          <t>Proverbs 2:2</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Proverbs 2:316</t>
+          <t>Proverbs 2:3</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Proverbs 2:416</t>
+          <t>Proverbs 2:4</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Proverbs 2:516</t>
+          <t>Proverbs 2:5</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Proverbs 2:616</t>
+          <t>Proverbs 2:6</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Proverbs 2:716</t>
+          <t>Proverbs 2:7</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Proverbs 2:816</t>
+          <t>Proverbs 2:8</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Proverbs 2:916</t>
+          <t>Proverbs 2:9</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Proverbs 2:1016</t>
+          <t>Proverbs 2:10</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Proverbs 2:1116</t>
+          <t>Proverbs 2:11</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Proverbs 2:1216</t>
+          <t>Proverbs 2:12</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Proverbs 2:1316</t>
+          <t>Proverbs 2:13</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Proverbs 2:1416</t>
+          <t>Proverbs 2:14</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Proverbs 2:1516</t>
+          <t>Proverbs 2:15</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Proverbs 2:1616</t>
+          <t>Proverbs 2:16</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Proverbs 2:1716</t>
+          <t>Proverbs 2:17</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Proverbs 2:1816</t>
+          <t>Proverbs 2:18</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Proverbs 2:1916</t>
+          <t>Proverbs 2:19</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Proverbs 2:2016</t>
+          <t>Proverbs 2:20</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Proverbs 2:2116</t>
+          <t>Proverbs 2:21</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Proverbs 2:2216</t>
+          <t>Proverbs 2:22</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Proverbs 3:116</t>
+          <t>Proverbs 3:1</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Proverbs 3:216</t>
+          <t>Proverbs 3:2</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Proverbs 3:316</t>
+          <t>Proverbs 3:3</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Proverbs 3:416</t>
+          <t>Proverbs 3:4</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Proverbs 3:516</t>
+          <t>Proverbs 3:5</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Proverbs 3:616</t>
+          <t>Proverbs 3:6</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Proverbs 3:716</t>
+          <t>Proverbs 3:7</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Proverbs 3:816</t>
+          <t>Proverbs 3:8</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Proverbs 3:916</t>
+          <t>Proverbs 3:9</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Proverbs 3:1016</t>
+          <t>Proverbs 3:10</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Proverbs 3:1116</t>
+          <t>Proverbs 3:11</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Proverbs 3:1216</t>
+          <t>Proverbs 3:12</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1240,7 +1240,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Proverbs 3:1316</t>
+          <t>Proverbs 3:13</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1252,7 +1252,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Proverbs 3:1416</t>
+          <t>Proverbs 3:14</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1264,7 +1264,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Proverbs 3:1516</t>
+          <t>Proverbs 3:15</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1276,7 +1276,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Proverbs 3:1616</t>
+          <t>Proverbs 3:16</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1288,7 +1288,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Proverbs 3:1716</t>
+          <t>Proverbs 3:17</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1300,7 +1300,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Proverbs 3:1816</t>
+          <t>Proverbs 3:18</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1312,7 +1312,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Proverbs 3:1916</t>
+          <t>Proverbs 3:19</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1324,7 +1324,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Proverbs 3:2016</t>
+          <t>Proverbs 3:20</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1336,7 +1336,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Proverbs 3:2116</t>
+          <t>Proverbs 3:21</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1348,7 +1348,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Proverbs 3:2216</t>
+          <t>Proverbs 3:22</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1360,7 +1360,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Proverbs 3:2316</t>
+          <t>Proverbs 3:23</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1372,7 +1372,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Proverbs 3:2416</t>
+          <t>Proverbs 3:24</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1384,7 +1384,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Proverbs 3:2516</t>
+          <t>Proverbs 3:25</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1396,7 +1396,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Proverbs 3:2616</t>
+          <t>Proverbs 3:26</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1408,7 +1408,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Proverbs 3:2716</t>
+          <t>Proverbs 3:27</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1420,7 +1420,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Proverbs 3:2816</t>
+          <t>Proverbs 3:28</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Proverbs 3:2916</t>
+          <t>Proverbs 3:29</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1444,7 +1444,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Proverbs 3:3016</t>
+          <t>Proverbs 3:30</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1456,7 +1456,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Proverbs 3:3116</t>
+          <t>Proverbs 3:31</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1468,7 +1468,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Proverbs 3:3216</t>
+          <t>Proverbs 3:32</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1480,7 +1480,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Proverbs 3:3316</t>
+          <t>Proverbs 3:33</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1492,7 +1492,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Proverbs 3:3416</t>
+          <t>Proverbs 3:34</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1504,7 +1504,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Proverbs 3:3516</t>
+          <t>Proverbs 3:35</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1516,7 +1516,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Proverbs 4:116</t>
+          <t>Proverbs 4:1</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1528,7 +1528,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Proverbs 4:216</t>
+          <t>Proverbs 4:2</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1540,7 +1540,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Proverbs 4:316</t>
+          <t>Proverbs 4:3</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1552,7 +1552,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Proverbs 4:416</t>
+          <t>Proverbs 4:4</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1564,7 +1564,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Proverbs 4:516</t>
+          <t>Proverbs 4:5</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1576,7 +1576,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Proverbs 4:616</t>
+          <t>Proverbs 4:6</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1588,7 +1588,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Proverbs 4:716</t>
+          <t>Proverbs 4:7</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1600,7 +1600,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Proverbs 4:816</t>
+          <t>Proverbs 4:8</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1612,7 +1612,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Proverbs 4:916</t>
+          <t>Proverbs 4:9</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1624,7 +1624,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Proverbs 4:1016</t>
+          <t>Proverbs 4:10</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Proverbs 4:1116</t>
+          <t>Proverbs 4:11</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1648,7 +1648,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Proverbs 4:1216</t>
+          <t>Proverbs 4:12</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1660,7 +1660,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Proverbs 4:1316</t>
+          <t>Proverbs 4:13</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1672,7 +1672,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Proverbs 4:1416</t>
+          <t>Proverbs 4:14</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1684,7 +1684,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Proverbs 4:1516</t>
+          <t>Proverbs 4:15</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1696,7 +1696,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Proverbs 4:1616</t>
+          <t>Proverbs 4:16</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1708,7 +1708,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Proverbs 4:1716</t>
+          <t>Proverbs 4:17</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1720,7 +1720,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Proverbs 4:1816</t>
+          <t>Proverbs 4:18</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1732,7 +1732,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Proverbs 4:1916</t>
+          <t>Proverbs 4:19</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1744,7 +1744,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Proverbs 4:2016</t>
+          <t>Proverbs 4:20</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1756,7 +1756,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Proverbs 4:2116</t>
+          <t>Proverbs 4:21</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1768,7 +1768,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Proverbs 4:2216</t>
+          <t>Proverbs 4:22</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1780,7 +1780,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Proverbs 4:2316</t>
+          <t>Proverbs 4:23</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1792,7 +1792,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Proverbs 4:2416</t>
+          <t>Proverbs 4:24</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1804,7 +1804,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Proverbs 4:2516</t>
+          <t>Proverbs 4:25</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1816,7 +1816,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Proverbs 4:2616</t>
+          <t>Proverbs 4:26</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1828,7 +1828,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Proverbs 4:2716</t>
+          <t>Proverbs 4:27</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Proverbs 5:116</t>
+          <t>Proverbs 5:1</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1852,7 +1852,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Proverbs 5:216</t>
+          <t>Proverbs 5:2</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1864,7 +1864,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Proverbs 5:316</t>
+          <t>Proverbs 5:3</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1876,7 +1876,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Proverbs 5:416</t>
+          <t>Proverbs 5:4</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Proverbs 5:516</t>
+          <t>Proverbs 5:5</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1900,7 +1900,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Proverbs 5:616</t>
+          <t>Proverbs 5:6</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1912,7 +1912,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Proverbs 5:716</t>
+          <t>Proverbs 5:7</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1924,7 +1924,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Proverbs 5:816</t>
+          <t>Proverbs 5:8</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1936,7 +1936,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Proverbs 5:916</t>
+          <t>Proverbs 5:9</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1948,7 +1948,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Proverbs 5:1016</t>
+          <t>Proverbs 5:10</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1960,7 +1960,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Proverbs 5:1116</t>
+          <t>Proverbs 5:11</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1972,7 +1972,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Proverbs 5:1216</t>
+          <t>Proverbs 5:12</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1984,7 +1984,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Proverbs 5:1316</t>
+          <t>Proverbs 5:13</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1996,7 +1996,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Proverbs 5:1416</t>
+          <t>Proverbs 5:14</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2008,7 +2008,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Proverbs 5:1516</t>
+          <t>Proverbs 5:15</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2020,7 +2020,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Proverbs 5:1616</t>
+          <t>Proverbs 5:16</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2032,7 +2032,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Proverbs 5:1716</t>
+          <t>Proverbs 5:17</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Proverbs 5:1816</t>
+          <t>Proverbs 5:18</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2056,7 +2056,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Proverbs 5:1916</t>
+          <t>Proverbs 5:19</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2068,7 +2068,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Proverbs 5:2016</t>
+          <t>Proverbs 5:20</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2080,7 +2080,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Proverbs 5:2116</t>
+          <t>Proverbs 5:21</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2092,7 +2092,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Proverbs 5:2216</t>
+          <t>Proverbs 5:22</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2104,7 +2104,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Proverbs 5:2316</t>
+          <t>Proverbs 5:23</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2116,7 +2116,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Proverbs 6:116</t>
+          <t>Proverbs 6:1</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2128,7 +2128,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Proverbs 6:216</t>
+          <t>Proverbs 6:2</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2140,7 +2140,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Proverbs 6:316</t>
+          <t>Proverbs 6:3</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2152,7 +2152,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Proverbs 6:416</t>
+          <t>Proverbs 6:4</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2164,7 +2164,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Proverbs 6:516</t>
+          <t>Proverbs 6:5</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2176,7 +2176,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Proverbs 6:616</t>
+          <t>Proverbs 6:6</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2188,7 +2188,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Proverbs 6:716</t>
+          <t>Proverbs 6:7</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2200,7 +2200,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Proverbs 6:816</t>
+          <t>Proverbs 6:8</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2212,7 +2212,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Proverbs 6:916</t>
+          <t>Proverbs 6:9</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2224,7 +2224,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Proverbs 6:1016</t>
+          <t>Proverbs 6:10</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2236,7 +2236,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Proverbs 6:1116</t>
+          <t>Proverbs 6:11</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Proverbs 6:1216</t>
+          <t>Proverbs 6:12</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2260,7 +2260,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Proverbs 6:1316</t>
+          <t>Proverbs 6:13</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2272,7 +2272,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Proverbs 6:1416</t>
+          <t>Proverbs 6:14</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2284,7 +2284,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Proverbs 6:1516</t>
+          <t>Proverbs 6:15</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2296,7 +2296,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Proverbs 6:1616</t>
+          <t>Proverbs 6:16</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2308,7 +2308,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Proverbs 6:1716</t>
+          <t>Proverbs 6:17</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2320,7 +2320,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Proverbs 6:1816</t>
+          <t>Proverbs 6:18</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2332,7 +2332,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Proverbs 6:1916</t>
+          <t>Proverbs 6:19</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2344,7 +2344,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Proverbs 6:2016</t>
+          <t>Proverbs 6:20</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2356,7 +2356,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Proverbs 6:2116</t>
+          <t>Proverbs 6:21</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2368,7 +2368,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Proverbs 6:2216</t>
+          <t>Proverbs 6:22</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2380,7 +2380,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Proverbs 6:2316</t>
+          <t>Proverbs 6:23</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2392,7 +2392,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Proverbs 6:2416</t>
+          <t>Proverbs 6:24</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2404,7 +2404,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Proverbs 6:2516</t>
+          <t>Proverbs 6:25</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2416,7 +2416,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Proverbs 6:2616</t>
+          <t>Proverbs 6:26</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2428,7 +2428,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Proverbs 6:2716</t>
+          <t>Proverbs 6:27</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2440,7 +2440,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Proverbs 6:2816</t>
+          <t>Proverbs 6:28</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Proverbs 6:2916</t>
+          <t>Proverbs 6:29</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2464,7 +2464,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Proverbs 6:3016</t>
+          <t>Proverbs 6:30</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2476,7 +2476,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Proverbs 6:3116</t>
+          <t>Proverbs 6:31</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2488,7 +2488,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Proverbs 6:3216</t>
+          <t>Proverbs 6:32</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2500,7 +2500,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Proverbs 6:3316</t>
+          <t>Proverbs 6:33</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2512,7 +2512,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Proverbs 6:3416</t>
+          <t>Proverbs 6:34</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2524,7 +2524,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Proverbs 6:3516</t>
+          <t>Proverbs 6:35</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2536,7 +2536,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Proverbs 7:116</t>
+          <t>Proverbs 7:1</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2548,7 +2548,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Proverbs 7:216</t>
+          <t>Proverbs 7:2</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2560,7 +2560,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Proverbs 7:316</t>
+          <t>Proverbs 7:3</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2572,7 +2572,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Proverbs 7:416</t>
+          <t>Proverbs 7:4</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2584,7 +2584,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Proverbs 7:516</t>
+          <t>Proverbs 7:5</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2596,7 +2596,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Proverbs 7:616</t>
+          <t>Proverbs 7:6</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2608,7 +2608,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Proverbs 7:716</t>
+          <t>Proverbs 7:7</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2620,7 +2620,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Proverbs 7:816</t>
+          <t>Proverbs 7:8</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2632,7 +2632,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Proverbs 7:916</t>
+          <t>Proverbs 7:9</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2644,7 +2644,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Proverbs 7:1016</t>
+          <t>Proverbs 7:10</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Proverbs 7:1116</t>
+          <t>Proverbs 7:11</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2668,7 +2668,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Proverbs 7:1216</t>
+          <t>Proverbs 7:12</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2680,7 +2680,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Proverbs 7:1316</t>
+          <t>Proverbs 7:13</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2692,7 +2692,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Proverbs 7:1416</t>
+          <t>Proverbs 7:14</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2704,7 +2704,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Proverbs 7:1516</t>
+          <t>Proverbs 7:15</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2716,7 +2716,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Proverbs 7:1616</t>
+          <t>Proverbs 7:16</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2728,7 +2728,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Proverbs 7:1716</t>
+          <t>Proverbs 7:17</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2740,7 +2740,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Proverbs 7:1816</t>
+          <t>Proverbs 7:18</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2752,7 +2752,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Proverbs 7:1916</t>
+          <t>Proverbs 7:19</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2764,7 +2764,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Proverbs 7:2016</t>
+          <t>Proverbs 7:20</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2776,7 +2776,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Proverbs 7:2116</t>
+          <t>Proverbs 7:21</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2788,7 +2788,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Proverbs 7:2216</t>
+          <t>Proverbs 7:22</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2800,7 +2800,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Proverbs 7:2316</t>
+          <t>Proverbs 7:23</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -2812,7 +2812,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Proverbs 7:2416</t>
+          <t>Proverbs 7:24</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2824,7 +2824,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Proverbs 7:2516</t>
+          <t>Proverbs 7:25</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -2836,7 +2836,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Proverbs 7:2616</t>
+          <t>Proverbs 7:26</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2848,7 +2848,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Proverbs 7:2716</t>
+          <t>Proverbs 7:27</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Proverbs 8:116</t>
+          <t>Proverbs 8:1</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -2872,7 +2872,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Proverbs 8:216</t>
+          <t>Proverbs 8:2</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -2884,7 +2884,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Proverbs 8:316</t>
+          <t>Proverbs 8:3</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -2896,7 +2896,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Proverbs 8:416</t>
+          <t>Proverbs 8:4</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -2908,7 +2908,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Proverbs 8:516</t>
+          <t>Proverbs 8:5</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -2920,7 +2920,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Proverbs 8:616</t>
+          <t>Proverbs 8:6</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -2932,7 +2932,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Proverbs 8:716</t>
+          <t>Proverbs 8:7</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -2944,7 +2944,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Proverbs 8:816</t>
+          <t>Proverbs 8:8</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -2956,7 +2956,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Proverbs 8:916</t>
+          <t>Proverbs 8:9</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -2968,7 +2968,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Proverbs 8:1016</t>
+          <t>Proverbs 8:10</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -2980,7 +2980,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Proverbs 8:1116</t>
+          <t>Proverbs 8:11</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -2992,7 +2992,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Proverbs 8:1216</t>
+          <t>Proverbs 8:12</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -3004,7 +3004,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Proverbs 8:1316</t>
+          <t>Proverbs 8:13</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -3016,7 +3016,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Proverbs 8:1416</t>
+          <t>Proverbs 8:14</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -3028,7 +3028,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Proverbs 8:1516</t>
+          <t>Proverbs 8:15</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -3040,7 +3040,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Proverbs 8:1616</t>
+          <t>Proverbs 8:16</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -3052,7 +3052,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Proverbs 8:1716</t>
+          <t>Proverbs 8:17</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -3064,7 +3064,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Proverbs 8:1816</t>
+          <t>Proverbs 8:18</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -3076,7 +3076,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Proverbs 8:1916</t>
+          <t>Proverbs 8:19</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -3088,7 +3088,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Proverbs 8:2016</t>
+          <t>Proverbs 8:20</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -3100,7 +3100,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Proverbs 8:2116</t>
+          <t>Proverbs 8:21</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -3112,7 +3112,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Proverbs 8:2216</t>
+          <t>Proverbs 8:22</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -3124,7 +3124,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Proverbs 8:2316</t>
+          <t>Proverbs 8:23</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -3136,7 +3136,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Proverbs 8:2416</t>
+          <t>Proverbs 8:24</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -3148,7 +3148,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Proverbs 8:2516</t>
+          <t>Proverbs 8:25</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -3160,7 +3160,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Proverbs 8:2616</t>
+          <t>Proverbs 8:26</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -3172,7 +3172,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Proverbs 8:2716</t>
+          <t>Proverbs 8:27</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -3184,7 +3184,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Proverbs 8:2816</t>
+          <t>Proverbs 8:28</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -3196,7 +3196,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Proverbs 8:2916</t>
+          <t>Proverbs 8:29</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -3208,7 +3208,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Proverbs 8:3016</t>
+          <t>Proverbs 8:30</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -3220,7 +3220,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Proverbs 8:3116</t>
+          <t>Proverbs 8:31</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -3232,7 +3232,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Proverbs 8:3216</t>
+          <t>Proverbs 8:32</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -3244,7 +3244,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Proverbs 8:3316</t>
+          <t>Proverbs 8:33</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -3256,7 +3256,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Proverbs 8:3416</t>
+          <t>Proverbs 8:34</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -3268,7 +3268,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Proverbs 8:3516</t>
+          <t>Proverbs 8:35</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -3280,7 +3280,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Proverbs 8:3616</t>
+          <t>Proverbs 8:36</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -3292,7 +3292,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Proverbs 9:116</t>
+          <t>Proverbs 9:1</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -3304,7 +3304,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Proverbs 9:216</t>
+          <t>Proverbs 9:2</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -3316,7 +3316,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Proverbs 9:316</t>
+          <t>Proverbs 9:3</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -3328,7 +3328,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Proverbs 9:416</t>
+          <t>Proverbs 9:4</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -3340,7 +3340,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Proverbs 9:516</t>
+          <t>Proverbs 9:5</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -3352,7 +3352,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Proverbs 9:616</t>
+          <t>Proverbs 9:6</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -3364,7 +3364,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Proverbs 9:716</t>
+          <t>Proverbs 9:7</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -3376,7 +3376,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Proverbs 9:816</t>
+          <t>Proverbs 9:8</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -3388,7 +3388,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Proverbs 9:916</t>
+          <t>Proverbs 9:9</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -3400,7 +3400,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Proverbs 9:1016</t>
+          <t>Proverbs 9:10</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -3412,7 +3412,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Proverbs 9:1116</t>
+          <t>Proverbs 9:11</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -3424,7 +3424,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Proverbs 9:1216</t>
+          <t>Proverbs 9:12</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -3436,7 +3436,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Proverbs 9:1316</t>
+          <t>Proverbs 9:13</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -3448,7 +3448,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Proverbs 9:1416</t>
+          <t>Proverbs 9:14</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -3460,7 +3460,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Proverbs 9:1516</t>
+          <t>Proverbs 9:15</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -3472,7 +3472,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Proverbs 9:1616</t>
+          <t>Proverbs 9:16</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -3484,7 +3484,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Proverbs 9:1716</t>
+          <t>Proverbs 9:17</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -3496,7 +3496,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Proverbs 9:1816</t>
+          <t>Proverbs 9:18</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -3508,7 +3508,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Proverbs 10:216</t>
+          <t>Proverbs 10:2</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -3520,7 +3520,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Proverbs 10:316</t>
+          <t>Proverbs 10:3</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -3532,7 +3532,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Proverbs 10:416</t>
+          <t>Proverbs 10:4</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -3544,7 +3544,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Proverbs 10:516</t>
+          <t>Proverbs 10:5</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -3556,7 +3556,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Proverbs 10:616</t>
+          <t>Proverbs 10:6</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -3568,7 +3568,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Proverbs 10:716</t>
+          <t>Proverbs 10:7</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -3580,7 +3580,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Proverbs 10:816</t>
+          <t>Proverbs 10:8</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -3592,7 +3592,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Proverbs 10:916</t>
+          <t>Proverbs 10:9</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -3604,7 +3604,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Proverbs 10:1016</t>
+          <t>Proverbs 10:10</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -3616,7 +3616,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Proverbs 10:1116</t>
+          <t>Proverbs 10:11</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -3628,7 +3628,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Proverbs 10:1216</t>
+          <t>Proverbs 10:12</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -3640,7 +3640,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Proverbs 10:1316</t>
+          <t>Proverbs 10:13</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -3652,7 +3652,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Proverbs 10:1416</t>
+          <t>Proverbs 10:14</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -3664,7 +3664,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Proverbs 10:1516</t>
+          <t>Proverbs 10:15</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -3676,7 +3676,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Proverbs 10:1616</t>
+          <t>Proverbs 10:16</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -3688,7 +3688,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Proverbs 10:1716</t>
+          <t>Proverbs 10:17</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -3700,7 +3700,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Proverbs 10:1816</t>
+          <t>Proverbs 10:18</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -3712,7 +3712,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Proverbs 10:1916</t>
+          <t>Proverbs 10:19</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -3724,7 +3724,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Proverbs 10:2016</t>
+          <t>Proverbs 10:20</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -3736,7 +3736,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Proverbs 10:2116</t>
+          <t>Proverbs 10:21</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -3748,7 +3748,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Proverbs 10:2216</t>
+          <t>Proverbs 10:22</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -3760,7 +3760,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Proverbs 10:2316</t>
+          <t>Proverbs 10:23</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -3772,7 +3772,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Proverbs 10:2416</t>
+          <t>Proverbs 10:24</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -3784,7 +3784,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Proverbs 10:2516</t>
+          <t>Proverbs 10:25</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -3796,7 +3796,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Proverbs 10:2616</t>
+          <t>Proverbs 10:26</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -3808,7 +3808,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Proverbs 10:2716</t>
+          <t>Proverbs 10:27</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -3820,7 +3820,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Proverbs 10:2816</t>
+          <t>Proverbs 10:28</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -3832,7 +3832,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Proverbs 10:2916</t>
+          <t>Proverbs 10:29</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -3844,7 +3844,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Proverbs 10:3016</t>
+          <t>Proverbs 10:30</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -3856,7 +3856,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Proverbs 10:3116</t>
+          <t>Proverbs 10:31</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -3868,7 +3868,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Proverbs 10:3216</t>
+          <t>Proverbs 10:32</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -3880,7 +3880,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Proverbs 11:116</t>
+          <t>Proverbs 11:1</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -3892,7 +3892,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Proverbs 11:216</t>
+          <t>Proverbs 11:2</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -3904,7 +3904,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Proverbs 11:316</t>
+          <t>Proverbs 11:3</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -3916,7 +3916,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Proverbs 11:416</t>
+          <t>Proverbs 11:4</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -3928,7 +3928,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Proverbs 11:516</t>
+          <t>Proverbs 11:5</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -3940,7 +3940,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Proverbs 11:616</t>
+          <t>Proverbs 11:6</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -3952,7 +3952,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Proverbs 11:716</t>
+          <t>Proverbs 11:7</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -3964,7 +3964,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Proverbs 11:816</t>
+          <t>Proverbs 11:8</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -3976,7 +3976,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Proverbs 11:916</t>
+          <t>Proverbs 11:9</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -3988,7 +3988,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Proverbs 11:1016</t>
+          <t>Proverbs 11:10</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -4000,7 +4000,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Proverbs 11:1116</t>
+          <t>Proverbs 11:11</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -4012,7 +4012,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Proverbs 11:1216</t>
+          <t>Proverbs 11:12</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -4024,7 +4024,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Proverbs 11:1316</t>
+          <t>Proverbs 11:13</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -4036,7 +4036,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Proverbs 11:1416</t>
+          <t>Proverbs 11:14</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -4048,7 +4048,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Proverbs 11:1516</t>
+          <t>Proverbs 11:15</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -4060,7 +4060,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Proverbs 11:1616</t>
+          <t>Proverbs 11:16</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -4072,7 +4072,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Proverbs 11:1716</t>
+          <t>Proverbs 11:17</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -4084,7 +4084,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Proverbs 11:1816</t>
+          <t>Proverbs 11:18</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -4096,7 +4096,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Proverbs 11:1916</t>
+          <t>Proverbs 11:19</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -4108,7 +4108,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Proverbs 11:2016</t>
+          <t>Proverbs 11:20</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -4120,7 +4120,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Proverbs 11:2116</t>
+          <t>Proverbs 11:21</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -4132,7 +4132,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Proverbs 11:2216</t>
+          <t>Proverbs 11:22</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -4144,7 +4144,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Proverbs 11:2316</t>
+          <t>Proverbs 11:23</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -4156,7 +4156,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Proverbs 11:2416</t>
+          <t>Proverbs 11:24</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -4168,7 +4168,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Proverbs 11:2516</t>
+          <t>Proverbs 11:25</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -4180,7 +4180,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Proverbs 11:2616</t>
+          <t>Proverbs 11:26</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -4192,7 +4192,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Proverbs 11:2716</t>
+          <t>Proverbs 11:27</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -4204,7 +4204,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Proverbs 11:2816</t>
+          <t>Proverbs 11:28</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -4216,7 +4216,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Proverbs 11:2916</t>
+          <t>Proverbs 11:29</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -4228,7 +4228,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Proverbs 11:3016</t>
+          <t>Proverbs 11:30</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -4240,7 +4240,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Proverbs 11:3116</t>
+          <t>Proverbs 11:31</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -4252,7 +4252,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Proverbs 12:116</t>
+          <t>Proverbs 12:1</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -4264,7 +4264,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Proverbs 12:216</t>
+          <t>Proverbs 12:2</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -4276,7 +4276,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Proverbs 12:316</t>
+          <t>Proverbs 12:3</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -4288,7 +4288,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Proverbs 12:416</t>
+          <t>Proverbs 12:4</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -4300,7 +4300,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Proverbs 12:516</t>
+          <t>Proverbs 12:5</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -4312,7 +4312,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Proverbs 12:616</t>
+          <t>Proverbs 12:6</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -4324,7 +4324,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Proverbs 12:716</t>
+          <t>Proverbs 12:7</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -4336,7 +4336,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Proverbs 12:816</t>
+          <t>Proverbs 12:8</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -4348,7 +4348,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Proverbs 12:916</t>
+          <t>Proverbs 12:9</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -4360,7 +4360,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Proverbs 12:1016</t>
+          <t>Proverbs 12:10</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -4372,7 +4372,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Proverbs 12:1116</t>
+          <t>Proverbs 12:11</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -4384,7 +4384,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Proverbs 12:1216</t>
+          <t>Proverbs 12:12</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -4396,7 +4396,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Proverbs 12:1316</t>
+          <t>Proverbs 12:13</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -4408,7 +4408,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Proverbs 12:1416</t>
+          <t>Proverbs 12:14</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -4420,7 +4420,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Proverbs 12:1516</t>
+          <t>Proverbs 12:15</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -4432,7 +4432,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Proverbs 12:1616</t>
+          <t>Proverbs 12:16</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -4444,7 +4444,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Proverbs 12:1716</t>
+          <t>Proverbs 12:17</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -4456,7 +4456,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Proverbs 12:1816</t>
+          <t>Proverbs 12:18</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -4468,7 +4468,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Proverbs 12:1916</t>
+          <t>Proverbs 12:19</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -4480,7 +4480,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Proverbs 12:2016</t>
+          <t>Proverbs 12:20</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -4492,7 +4492,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Proverbs 12:2116</t>
+          <t>Proverbs 12:21</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -4504,7 +4504,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Proverbs 12:2216</t>
+          <t>Proverbs 12:22</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -4516,7 +4516,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Proverbs 12:2316</t>
+          <t>Proverbs 12:23</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -4528,7 +4528,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Proverbs 12:2416</t>
+          <t>Proverbs 12:24</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -4540,7 +4540,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Proverbs 12:2516</t>
+          <t>Proverbs 12:25</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -4552,7 +4552,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Proverbs 12:2616</t>
+          <t>Proverbs 12:26</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -4564,7 +4564,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Proverbs 12:2716</t>
+          <t>Proverbs 12:27</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -4576,7 +4576,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Proverbs 12:2816</t>
+          <t>Proverbs 12:28</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -4588,7 +4588,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Proverbs 13:116</t>
+          <t>Proverbs 13:1</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -4600,7 +4600,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Proverbs 13:216</t>
+          <t>Proverbs 13:2</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -4612,7 +4612,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Proverbs 13:316</t>
+          <t>Proverbs 13:3</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -4624,7 +4624,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Proverbs 13:416</t>
+          <t>Proverbs 13:4</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -4636,7 +4636,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Proverbs 13:516</t>
+          <t>Proverbs 13:5</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -4648,7 +4648,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Proverbs 13:616</t>
+          <t>Proverbs 13:6</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -4660,7 +4660,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Proverbs 13:716</t>
+          <t>Proverbs 13:7</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -4672,7 +4672,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Proverbs 13:816</t>
+          <t>Proverbs 13:8</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -4684,7 +4684,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Proverbs 13:916</t>
+          <t>Proverbs 13:9</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -4696,7 +4696,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Proverbs 13:1016</t>
+          <t>Proverbs 13:10</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -4708,7 +4708,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Proverbs 13:1116</t>
+          <t>Proverbs 13:11</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -4720,7 +4720,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Proverbs 13:1216</t>
+          <t>Proverbs 13:12</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -4732,7 +4732,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Proverbs 13:1316</t>
+          <t>Proverbs 13:13</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -4744,7 +4744,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Proverbs 13:1416</t>
+          <t>Proverbs 13:14</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -4756,7 +4756,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Proverbs 13:1516</t>
+          <t>Proverbs 13:15</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -4768,7 +4768,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Proverbs 13:1616</t>
+          <t>Proverbs 13:16</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -4780,7 +4780,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Proverbs 13:1716</t>
+          <t>Proverbs 13:17</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -4792,7 +4792,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Proverbs 13:1816</t>
+          <t>Proverbs 13:18</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -4804,7 +4804,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Proverbs 13:1916</t>
+          <t>Proverbs 13:19</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -4816,7 +4816,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Proverbs 13:2016</t>
+          <t>Proverbs 13:20</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -4828,7 +4828,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Proverbs 13:2116</t>
+          <t>Proverbs 13:21</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -4840,7 +4840,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Proverbs 13:2216</t>
+          <t>Proverbs 13:22</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -4852,7 +4852,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Proverbs 13:2316</t>
+          <t>Proverbs 13:23</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -4864,7 +4864,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Proverbs 13:2416</t>
+          <t>Proverbs 13:24</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -4876,7 +4876,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Proverbs 13:2516</t>
+          <t>Proverbs 13:25</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -4888,7 +4888,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Proverbs 14:116</t>
+          <t>Proverbs 14:1</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -4900,7 +4900,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Proverbs 14:216</t>
+          <t>Proverbs 14:2</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -4912,7 +4912,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Proverbs 14:316</t>
+          <t>Proverbs 14:3</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -4924,7 +4924,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Proverbs 14:416</t>
+          <t>Proverbs 14:4</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -4936,7 +4936,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Proverbs 14:516</t>
+          <t>Proverbs 14:5</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -4948,7 +4948,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Proverbs 14:616</t>
+          <t>Proverbs 14:6</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -4960,7 +4960,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Proverbs 14:716</t>
+          <t>Proverbs 14:7</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -4972,7 +4972,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Proverbs 14:816</t>
+          <t>Proverbs 14:8</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -4984,7 +4984,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Proverbs 14:916</t>
+          <t>Proverbs 14:9</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -4996,7 +4996,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Proverbs 14:1016</t>
+          <t>Proverbs 14:10</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -5008,7 +5008,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Proverbs 14:1116</t>
+          <t>Proverbs 14:11</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -5020,7 +5020,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Proverbs 14:1216</t>
+          <t>Proverbs 14:12</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -5032,7 +5032,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Proverbs 14:1316</t>
+          <t>Proverbs 14:13</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -5044,7 +5044,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Proverbs 14:1416</t>
+          <t>Proverbs 14:14</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -5056,7 +5056,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Proverbs 14:1516</t>
+          <t>Proverbs 14:15</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -5068,7 +5068,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Proverbs 14:1616</t>
+          <t>Proverbs 14:16</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -5080,7 +5080,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Proverbs 14:1716</t>
+          <t>Proverbs 14:17</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -5092,7 +5092,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Proverbs 14:1816</t>
+          <t>Proverbs 14:18</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -5104,7 +5104,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Proverbs 14:1916</t>
+          <t>Proverbs 14:19</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -5116,7 +5116,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Proverbs 14:2016</t>
+          <t>Proverbs 14:20</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -5128,7 +5128,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Proverbs 14:2116</t>
+          <t>Proverbs 14:21</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -5140,7 +5140,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Proverbs 14:2216</t>
+          <t>Proverbs 14:22</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -5152,7 +5152,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Proverbs 14:2316</t>
+          <t>Proverbs 14:23</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -5164,7 +5164,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Proverbs 14:2416</t>
+          <t>Proverbs 14:24</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -5176,7 +5176,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Proverbs 14:2516</t>
+          <t>Proverbs 14:25</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -5188,7 +5188,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Proverbs 14:2616</t>
+          <t>Proverbs 14:26</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -5200,7 +5200,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Proverbs 14:2716</t>
+          <t>Proverbs 14:27</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -5212,7 +5212,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Proverbs 14:2816</t>
+          <t>Proverbs 14:28</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -5224,7 +5224,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Proverbs 14:2916</t>
+          <t>Proverbs 14:29</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -5236,7 +5236,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Proverbs 14:3016</t>
+          <t>Proverbs 14:30</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -5248,7 +5248,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Proverbs 14:3116</t>
+          <t>Proverbs 14:31</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -5260,7 +5260,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Proverbs 14:3216</t>
+          <t>Proverbs 14:32</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -5272,7 +5272,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Proverbs 14:3316</t>
+          <t>Proverbs 14:33</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -5284,7 +5284,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Proverbs 14:3416</t>
+          <t>Proverbs 14:34</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -5296,7 +5296,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Proverbs 14:3516</t>
+          <t>Proverbs 14:35</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -5308,7 +5308,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Proverbs 15:116</t>
+          <t>Proverbs 15:1</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -5320,7 +5320,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Proverbs 15:216</t>
+          <t>Proverbs 15:2</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -5332,7 +5332,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Proverbs 15:316</t>
+          <t>Proverbs 15:3</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -5344,7 +5344,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Proverbs 15:416</t>
+          <t>Proverbs 15:4</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -5356,7 +5356,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Proverbs 15:516</t>
+          <t>Proverbs 15:5</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -5368,7 +5368,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Proverbs 15:616</t>
+          <t>Proverbs 15:6</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -5380,7 +5380,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Proverbs 15:716</t>
+          <t>Proverbs 15:7</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -5392,7 +5392,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Proverbs 15:816</t>
+          <t>Proverbs 15:8</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -5404,7 +5404,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Proverbs 15:916</t>
+          <t>Proverbs 15:9</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -5416,7 +5416,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Proverbs 15:1016</t>
+          <t>Proverbs 15:10</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -5428,7 +5428,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Proverbs 15:1116</t>
+          <t>Proverbs 15:11</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -5440,7 +5440,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Proverbs 15:1216</t>
+          <t>Proverbs 15:12</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -5452,7 +5452,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Proverbs 15:1316</t>
+          <t>Proverbs 15:13</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -5464,7 +5464,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Proverbs 15:1416</t>
+          <t>Proverbs 15:14</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -5476,7 +5476,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Proverbs 15:1516</t>
+          <t>Proverbs 15:15</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -5488,7 +5488,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Proverbs 15:1616</t>
+          <t>Proverbs 15:16</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -5500,7 +5500,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Proverbs 15:1716</t>
+          <t>Proverbs 15:17</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -5512,7 +5512,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Proverbs 15:1816</t>
+          <t>Proverbs 15:18</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -5524,7 +5524,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Proverbs 15:1916</t>
+          <t>Proverbs 15:19</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -5536,7 +5536,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Proverbs 15:2016</t>
+          <t>Proverbs 15:20</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -5548,7 +5548,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Proverbs 15:2116</t>
+          <t>Proverbs 15:21</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -5560,7 +5560,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Proverbs 15:2216</t>
+          <t>Proverbs 15:22</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -5572,7 +5572,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Proverbs 15:2316</t>
+          <t>Proverbs 15:23</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -5584,7 +5584,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Proverbs 15:2416</t>
+          <t>Proverbs 15:24</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -5596,7 +5596,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Proverbs 15:2516</t>
+          <t>Proverbs 15:25</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -5608,7 +5608,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Proverbs 15:2616</t>
+          <t>Proverbs 15:26</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -5620,7 +5620,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Proverbs 15:2716</t>
+          <t>Proverbs 15:27</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -5632,7 +5632,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Proverbs 15:2816</t>
+          <t>Proverbs 15:28</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -5644,7 +5644,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Proverbs 15:2916</t>
+          <t>Proverbs 15:29</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -5656,7 +5656,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Proverbs 15:3016</t>
+          <t>Proverbs 15:30</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -5668,7 +5668,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Proverbs 15:3116</t>
+          <t>Proverbs 15:31</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -5680,7 +5680,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Proverbs 15:3216</t>
+          <t>Proverbs 15:32</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -5692,7 +5692,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Proverbs 15:3316</t>
+          <t>Proverbs 15:33</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -5704,7 +5704,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Proverbs 16:116</t>
+          <t>Proverbs 16:1</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -5716,7 +5716,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Proverbs 16:216</t>
+          <t>Proverbs 16:2</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -5728,7 +5728,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Proverbs 16:316</t>
+          <t>Proverbs 16:3</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -5740,7 +5740,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Proverbs 16:416</t>
+          <t>Proverbs 16:4</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -5752,7 +5752,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Proverbs 16:516</t>
+          <t>Proverbs 16:5</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -5764,7 +5764,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Proverbs 16:616</t>
+          <t>Proverbs 16:6</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -5776,7 +5776,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Proverbs 16:716</t>
+          <t>Proverbs 16:7</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -5788,7 +5788,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Proverbs 16:816</t>
+          <t>Proverbs 16:8</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -5800,7 +5800,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Proverbs 16:916</t>
+          <t>Proverbs 16:9</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -5812,7 +5812,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Proverbs 16:1016</t>
+          <t>Proverbs 16:10</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -5824,7 +5824,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Proverbs 16:1116</t>
+          <t>Proverbs 16:11</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -5836,7 +5836,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Proverbs 16:1216</t>
+          <t>Proverbs 16:12</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -5848,7 +5848,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Proverbs 16:1316</t>
+          <t>Proverbs 16:13</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -5860,7 +5860,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Proverbs 16:1416</t>
+          <t>Proverbs 16:14</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -5872,7 +5872,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Proverbs 16:1516</t>
+          <t>Proverbs 16:15</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -5884,7 +5884,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Proverbs 16:1616</t>
+          <t>Proverbs 16:16</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -5896,7 +5896,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Proverbs 16:1716</t>
+          <t>Proverbs 16:17</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -5908,7 +5908,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Proverbs 16:1816</t>
+          <t>Proverbs 16:18</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -5920,7 +5920,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Proverbs 16:1916</t>
+          <t>Proverbs 16:19</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -5932,7 +5932,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Proverbs 16:2016</t>
+          <t>Proverbs 16:20</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -5944,7 +5944,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Proverbs 16:2116</t>
+          <t>Proverbs 16:21</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -5956,7 +5956,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Proverbs 16:2216</t>
+          <t>Proverbs 16:22</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -5968,7 +5968,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Proverbs 16:2316</t>
+          <t>Proverbs 16:23</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -5980,7 +5980,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Proverbs 16:2416</t>
+          <t>Proverbs 16:24</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -5992,7 +5992,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Proverbs 16:2516</t>
+          <t>Proverbs 16:25</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -6004,7 +6004,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Proverbs 16:2616</t>
+          <t>Proverbs 16:26</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -6016,7 +6016,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Proverbs 16:2716</t>
+          <t>Proverbs 16:27</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -6028,7 +6028,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Proverbs 16:2816</t>
+          <t>Proverbs 16:28</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -6040,7 +6040,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Proverbs 16:2916</t>
+          <t>Proverbs 16:29</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -6052,7 +6052,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Proverbs 16:3016</t>
+          <t>Proverbs 16:30</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -6064,7 +6064,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Proverbs 16:3116</t>
+          <t>Proverbs 16:31</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -6076,7 +6076,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Proverbs 16:3216</t>
+          <t>Proverbs 16:32</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -6088,7 +6088,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Proverbs 16:3316</t>
+          <t>Proverbs 16:33</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -6100,7 +6100,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Proverbs 17:116</t>
+          <t>Proverbs 17:1</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -6112,7 +6112,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Proverbs 17:216</t>
+          <t>Proverbs 17:2</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -6124,7 +6124,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Proverbs 17:316</t>
+          <t>Proverbs 17:3</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -6136,7 +6136,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Proverbs 17:416</t>
+          <t>Proverbs 17:4</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -6148,7 +6148,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Proverbs 17:516</t>
+          <t>Proverbs 17:5</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -6160,7 +6160,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Proverbs 17:616</t>
+          <t>Proverbs 17:6</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -6172,7 +6172,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Proverbs 17:716</t>
+          <t>Proverbs 17:7</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -6184,7 +6184,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Proverbs 17:816</t>
+          <t>Proverbs 17:8</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -6196,7 +6196,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Proverbs 17:916</t>
+          <t>Proverbs 17:9</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -6208,7 +6208,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Proverbs 17:1016</t>
+          <t>Proverbs 17:10</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -6220,7 +6220,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Proverbs 17:1116</t>
+          <t>Proverbs 17:11</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -6232,7 +6232,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Proverbs 17:1216</t>
+          <t>Proverbs 17:12</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -6244,7 +6244,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Proverbs 17:1316</t>
+          <t>Proverbs 17:13</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -6256,7 +6256,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Proverbs 17:1416</t>
+          <t>Proverbs 17:14</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -6268,7 +6268,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Proverbs 17:1516</t>
+          <t>Proverbs 17:15</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -6280,7 +6280,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Proverbs 17:1616</t>
+          <t>Proverbs 17:16</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -6292,7 +6292,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Proverbs 17:1716</t>
+          <t>Proverbs 17:17</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -6304,7 +6304,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Proverbs 17:1816</t>
+          <t>Proverbs 17:18</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -6316,7 +6316,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Proverbs 17:1916</t>
+          <t>Proverbs 17:19</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -6328,7 +6328,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Proverbs 17:2016</t>
+          <t>Proverbs 17:20</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -6340,7 +6340,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Proverbs 17:2116</t>
+          <t>Proverbs 17:21</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -6352,7 +6352,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Proverbs 17:2216</t>
+          <t>Proverbs 17:22</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -6364,7 +6364,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Proverbs 17:2316</t>
+          <t>Proverbs 17:23</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -6376,7 +6376,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Proverbs 17:2416</t>
+          <t>Proverbs 17:24</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -6388,7 +6388,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Proverbs 17:2516</t>
+          <t>Proverbs 17:25</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -6400,7 +6400,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Proverbs 17:2616</t>
+          <t>Proverbs 17:26</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -6412,7 +6412,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Proverbs 17:2716</t>
+          <t>Proverbs 17:27</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -6424,7 +6424,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Proverbs 17:2816</t>
+          <t>Proverbs 17:28</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -6436,7 +6436,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Proverbs 18:116</t>
+          <t>Proverbs 18:1</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -6448,7 +6448,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Proverbs 18:216</t>
+          <t>Proverbs 18:2</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -6460,7 +6460,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Proverbs 18:316</t>
+          <t>Proverbs 18:3</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -6472,7 +6472,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Proverbs 18:416</t>
+          <t>Proverbs 18:4</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -6484,7 +6484,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Proverbs 18:516</t>
+          <t>Proverbs 18:5</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -6496,7 +6496,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Proverbs 18:616</t>
+          <t>Proverbs 18:6</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -6508,7 +6508,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Proverbs 18:716</t>
+          <t>Proverbs 18:7</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -6520,7 +6520,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Proverbs 18:816</t>
+          <t>Proverbs 18:8</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -6532,7 +6532,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Proverbs 18:916</t>
+          <t>Proverbs 18:9</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -6544,7 +6544,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Proverbs 18:1016</t>
+          <t>Proverbs 18:10</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -6556,7 +6556,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Proverbs 18:1116</t>
+          <t>Proverbs 18:11</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -6568,7 +6568,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Proverbs 18:1216</t>
+          <t>Proverbs 18:12</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -6580,7 +6580,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Proverbs 18:1316</t>
+          <t>Proverbs 18:13</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -6592,7 +6592,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Proverbs 18:1416</t>
+          <t>Proverbs 18:14</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -6604,7 +6604,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Proverbs 18:1516</t>
+          <t>Proverbs 18:15</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
@@ -6616,7 +6616,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Proverbs 18:1616</t>
+          <t>Proverbs 18:16</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -6628,7 +6628,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Proverbs 18:1716</t>
+          <t>Proverbs 18:17</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
@@ -6640,7 +6640,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Proverbs 18:1816</t>
+          <t>Proverbs 18:18</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -6652,7 +6652,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Proverbs 18:1916</t>
+          <t>Proverbs 18:19</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -6664,7 +6664,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Proverbs 18:2016</t>
+          <t>Proverbs 18:20</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
@@ -6676,7 +6676,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Proverbs 18:2116</t>
+          <t>Proverbs 18:21</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -6688,7 +6688,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Proverbs 18:2216</t>
+          <t>Proverbs 18:22</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -6700,7 +6700,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Proverbs 18:2316</t>
+          <t>Proverbs 18:23</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -6712,7 +6712,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Proverbs 18:2416</t>
+          <t>Proverbs 18:24</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -6724,7 +6724,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Proverbs 19:116</t>
+          <t>Proverbs 19:1</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -6736,7 +6736,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Proverbs 19:216</t>
+          <t>Proverbs 19:2</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -6748,7 +6748,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Proverbs 19:316</t>
+          <t>Proverbs 19:3</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
@@ -6760,7 +6760,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Proverbs 19:416</t>
+          <t>Proverbs 19:4</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
@@ -6772,7 +6772,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Proverbs 19:516</t>
+          <t>Proverbs 19:5</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
@@ -6784,7 +6784,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Proverbs 19:616</t>
+          <t>Proverbs 19:6</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
@@ -6796,7 +6796,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Proverbs 19:716</t>
+          <t>Proverbs 19:7</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
@@ -6808,7 +6808,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Proverbs 19:816</t>
+          <t>Proverbs 19:8</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
@@ -6820,7 +6820,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Proverbs 19:916</t>
+          <t>Proverbs 19:9</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
@@ -6832,7 +6832,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Proverbs 19:1016</t>
+          <t>Proverbs 19:10</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
@@ -6844,7 +6844,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Proverbs 19:1116</t>
+          <t>Proverbs 19:11</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
@@ -6856,7 +6856,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Proverbs 19:1216</t>
+          <t>Proverbs 19:12</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
@@ -6868,7 +6868,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Proverbs 19:1316</t>
+          <t>Proverbs 19:13</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
@@ -6880,7 +6880,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Proverbs 19:1416</t>
+          <t>Proverbs 19:14</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
@@ -6892,7 +6892,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Proverbs 19:1516</t>
+          <t>Proverbs 19:15</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
@@ -6904,7 +6904,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Proverbs 19:1616</t>
+          <t>Proverbs 19:16</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
@@ -6916,7 +6916,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Proverbs 19:1716</t>
+          <t>Proverbs 19:17</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
@@ -6928,7 +6928,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Proverbs 19:1816</t>
+          <t>Proverbs 19:18</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
@@ -6940,7 +6940,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Proverbs 19:1916</t>
+          <t>Proverbs 19:19</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
@@ -6952,7 +6952,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Proverbs 19:2016</t>
+          <t>Proverbs 19:20</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
@@ -6964,7 +6964,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Proverbs 19:2116</t>
+          <t>Proverbs 19:21</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
@@ -6976,7 +6976,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Proverbs 19:2216</t>
+          <t>Proverbs 19:22</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
@@ -6988,7 +6988,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Proverbs 19:2316</t>
+          <t>Proverbs 19:23</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
@@ -7000,7 +7000,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Proverbs 19:2416</t>
+          <t>Proverbs 19:24</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
@@ -7012,7 +7012,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Proverbs 19:2516</t>
+          <t>Proverbs 19:25</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
@@ -7024,7 +7024,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Proverbs 19:2616</t>
+          <t>Proverbs 19:26</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
@@ -7036,7 +7036,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Proverbs 19:2716</t>
+          <t>Proverbs 19:27</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
@@ -7048,7 +7048,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Proverbs 19:2816</t>
+          <t>Proverbs 19:28</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
@@ -7060,7 +7060,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>Proverbs 19:2916</t>
+          <t>Proverbs 19:29</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
@@ -7072,7 +7072,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Proverbs 20:116</t>
+          <t>Proverbs 20:1</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
@@ -7084,7 +7084,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Proverbs 20:216</t>
+          <t>Proverbs 20:2</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
@@ -7096,7 +7096,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Proverbs 20:316</t>
+          <t>Proverbs 20:3</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
@@ -7108,7 +7108,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Proverbs 20:416</t>
+          <t>Proverbs 20:4</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
@@ -7120,7 +7120,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Proverbs 20:516</t>
+          <t>Proverbs 20:5</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
@@ -7132,7 +7132,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Proverbs 20:616</t>
+          <t>Proverbs 20:6</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
@@ -7144,7 +7144,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Proverbs 20:716</t>
+          <t>Proverbs 20:7</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
@@ -7156,7 +7156,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Proverbs 20:816</t>
+          <t>Proverbs 20:8</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
@@ -7168,7 +7168,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Proverbs 20:916</t>
+          <t>Proverbs 20:9</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
@@ -7180,7 +7180,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Proverbs 20:1016</t>
+          <t>Proverbs 20:10</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
@@ -7192,7 +7192,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Proverbs 20:1116</t>
+          <t>Proverbs 20:11</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
@@ -7204,7 +7204,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Proverbs 20:1216</t>
+          <t>Proverbs 20:12</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
@@ -7216,7 +7216,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Proverbs 20:1316</t>
+          <t>Proverbs 20:13</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
@@ -7228,7 +7228,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Proverbs 20:1416</t>
+          <t>Proverbs 20:14</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
@@ -7240,7 +7240,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Proverbs 20:1516</t>
+          <t>Proverbs 20:15</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
@@ -7252,7 +7252,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Proverbs 20:1616</t>
+          <t>Proverbs 20:16</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
@@ -7264,7 +7264,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>Proverbs 20:1716</t>
+          <t>Proverbs 20:17</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
@@ -7276,7 +7276,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Proverbs 20:1816</t>
+          <t>Proverbs 20:18</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
@@ -7288,7 +7288,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>Proverbs 20:1916</t>
+          <t>Proverbs 20:19</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
@@ -7300,7 +7300,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Proverbs 20:2016</t>
+          <t>Proverbs 20:20</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
@@ -7312,7 +7312,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Proverbs 20:2116</t>
+          <t>Proverbs 20:21</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
@@ -7324,7 +7324,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>Proverbs 20:2216</t>
+          <t>Proverbs 20:22</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
@@ -7336,7 +7336,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Proverbs 20:2316</t>
+          <t>Proverbs 20:23</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
@@ -7348,7 +7348,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>Proverbs 20:2416</t>
+          <t>Proverbs 20:24</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
@@ -7360,7 +7360,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>Proverbs 20:2516</t>
+          <t>Proverbs 20:25</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
@@ -7372,7 +7372,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Proverbs 20:2616</t>
+          <t>Proverbs 20:26</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
@@ -7384,7 +7384,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>Proverbs 20:2716</t>
+          <t>Proverbs 20:27</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
@@ -7396,7 +7396,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Proverbs 20:2816</t>
+          <t>Proverbs 20:28</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
@@ -7408,7 +7408,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>Proverbs 20:2916</t>
+          <t>Proverbs 20:29</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
@@ -7420,7 +7420,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>Proverbs 20:3016</t>
+          <t>Proverbs 20:30</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
@@ -7432,7 +7432,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Proverbs 21:116</t>
+          <t>Proverbs 21:1</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
@@ -7444,7 +7444,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>Proverbs 21:216</t>
+          <t>Proverbs 21:2</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
@@ -7456,7 +7456,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>Proverbs 21:316</t>
+          <t>Proverbs 21:3</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
@@ -7468,7 +7468,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>Proverbs 21:416</t>
+          <t>Proverbs 21:4</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
@@ -7480,7 +7480,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>Proverbs 21:516</t>
+          <t>Proverbs 21:5</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
@@ -7492,7 +7492,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>Proverbs 21:616</t>
+          <t>Proverbs 21:6</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
@@ -7504,7 +7504,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>Proverbs 21:716</t>
+          <t>Proverbs 21:7</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
@@ -7516,7 +7516,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>Proverbs 21:816</t>
+          <t>Proverbs 21:8</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
@@ -7528,7 +7528,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>Proverbs 21:916</t>
+          <t>Proverbs 21:9</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
@@ -7540,7 +7540,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>Proverbs 21:1016</t>
+          <t>Proverbs 21:10</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
@@ -7552,7 +7552,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>Proverbs 21:1116</t>
+          <t>Proverbs 21:11</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
@@ -7564,7 +7564,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>Proverbs 21:1216</t>
+          <t>Proverbs 21:12</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
@@ -7576,7 +7576,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>Proverbs 21:1316</t>
+          <t>Proverbs 21:13</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
@@ -7588,7 +7588,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>Proverbs 21:1416</t>
+          <t>Proverbs 21:14</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
@@ -7600,7 +7600,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>Proverbs 21:1516</t>
+          <t>Proverbs 21:15</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
@@ -7612,7 +7612,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>Proverbs 21:1616</t>
+          <t>Proverbs 21:16</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
@@ -7624,7 +7624,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>Proverbs 21:1716</t>
+          <t>Proverbs 21:17</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
@@ -7636,7 +7636,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>Proverbs 21:1816</t>
+          <t>Proverbs 21:18</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
@@ -7648,7 +7648,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>Proverbs 21:1916</t>
+          <t>Proverbs 21:19</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
@@ -7660,7 +7660,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>Proverbs 21:2016</t>
+          <t>Proverbs 21:20</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
@@ -7672,7 +7672,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>Proverbs 21:2116</t>
+          <t>Proverbs 21:21</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
@@ -7684,7 +7684,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>Proverbs 21:2216</t>
+          <t>Proverbs 21:22</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
@@ -7696,7 +7696,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>Proverbs 21:2316</t>
+          <t>Proverbs 21:23</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
@@ -7708,7 +7708,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>Proverbs 21:2416</t>
+          <t>Proverbs 21:24</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
@@ -7720,7 +7720,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>Proverbs 21:2516</t>
+          <t>Proverbs 21:25</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
@@ -7732,7 +7732,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>Proverbs 21:2616</t>
+          <t>Proverbs 21:26</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
@@ -7744,7 +7744,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>Proverbs 21:2716</t>
+          <t>Proverbs 21:27</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
@@ -7756,7 +7756,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>Proverbs 21:2816</t>
+          <t>Proverbs 21:28</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
@@ -7768,7 +7768,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>Proverbs 21:2916</t>
+          <t>Proverbs 21:29</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
@@ -7780,7 +7780,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>Proverbs 21:3016</t>
+          <t>Proverbs 21:30</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
@@ -7792,7 +7792,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>Proverbs 21:3116</t>
+          <t>Proverbs 21:31</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
@@ -7804,7 +7804,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>Proverbs 22:116</t>
+          <t>Proverbs 22:1</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
@@ -7816,7 +7816,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>Proverbs 22:216</t>
+          <t>Proverbs 22:2</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
@@ -7828,7 +7828,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>Proverbs 22:316</t>
+          <t>Proverbs 22:3</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
@@ -7840,7 +7840,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>Proverbs 22:416</t>
+          <t>Proverbs 22:4</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
@@ -7852,7 +7852,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>Proverbs 22:516</t>
+          <t>Proverbs 22:5</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
@@ -7864,7 +7864,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>Proverbs 22:616</t>
+          <t>Proverbs 22:6</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
@@ -7876,7 +7876,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>Proverbs 22:716</t>
+          <t>Proverbs 22:7</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
@@ -7888,7 +7888,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>Proverbs 22:816</t>
+          <t>Proverbs 22:8</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
@@ -7900,7 +7900,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>Proverbs 22:916</t>
+          <t>Proverbs 22:9</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
@@ -7912,7 +7912,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>Proverbs 22:1016</t>
+          <t>Proverbs 22:10</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
@@ -7924,7 +7924,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>Proverbs 22:1116</t>
+          <t>Proverbs 22:11</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
@@ -7936,7 +7936,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>Proverbs 22:1216</t>
+          <t>Proverbs 22:12</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
@@ -7948,7 +7948,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>Proverbs 22:1316</t>
+          <t>Proverbs 22:13</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
@@ -7960,7 +7960,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>Proverbs 22:1416</t>
+          <t>Proverbs 22:14</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
@@ -7972,7 +7972,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>Proverbs 22:1516</t>
+          <t>Proverbs 22:15</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
@@ -7984,7 +7984,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>Proverbs 22:1616</t>
+          <t>Proverbs 22:16</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
@@ -7996,7 +7996,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>Proverbs 22:1716</t>
+          <t>Proverbs 22:17</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
@@ -8008,7 +8008,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>Proverbs 22:1816</t>
+          <t>Proverbs 22:18</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
@@ -8020,7 +8020,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>Proverbs 22:1916</t>
+          <t>Proverbs 22:19</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
@@ -8032,7 +8032,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>Proverbs 22:2016</t>
+          <t>Proverbs 22:20</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
@@ -8044,7 +8044,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>Proverbs 22:2116</t>
+          <t>Proverbs 22:21</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
@@ -8056,7 +8056,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>Proverbs 22:2216</t>
+          <t>Proverbs 22:22</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
@@ -8068,7 +8068,7 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>Proverbs 22:2316</t>
+          <t>Proverbs 22:23</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
@@ -8080,7 +8080,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>Proverbs 22:2416</t>
+          <t>Proverbs 22:24</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
@@ -8092,7 +8092,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>Proverbs 22:2516</t>
+          <t>Proverbs 22:25</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
@@ -8104,7 +8104,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>Proverbs 22:2616</t>
+          <t>Proverbs 22:26</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
@@ -8116,7 +8116,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>Proverbs 22:2716</t>
+          <t>Proverbs 22:27</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
@@ -8128,7 +8128,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>Proverbs 22:2816</t>
+          <t>Proverbs 22:28</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
@@ -8140,7 +8140,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>Proverbs 22:2916</t>
+          <t>Proverbs 22:29</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
@@ -8152,7 +8152,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>Proverbs 23:116</t>
+          <t>Proverbs 23:1</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
@@ -8164,7 +8164,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>Proverbs 23:216</t>
+          <t>Proverbs 23:2</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
@@ -8176,7 +8176,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>Proverbs 23:316</t>
+          <t>Proverbs 23:3</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
@@ -8188,7 +8188,7 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>Proverbs 23:416</t>
+          <t>Proverbs 23:4</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
@@ -8200,7 +8200,7 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>Proverbs 23:516</t>
+          <t>Proverbs 23:5</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
@@ -8212,7 +8212,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>Proverbs 23:616</t>
+          <t>Proverbs 23:6</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
@@ -8224,7 +8224,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>Proverbs 23:716</t>
+          <t>Proverbs 23:7</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
@@ -8236,7 +8236,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>Proverbs 23:816</t>
+          <t>Proverbs 23:8</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
@@ -8248,7 +8248,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>Proverbs 23:916</t>
+          <t>Proverbs 23:9</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
@@ -8260,7 +8260,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>Proverbs 23:1016</t>
+          <t>Proverbs 23:10</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
@@ -8272,7 +8272,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>Proverbs 23:1116</t>
+          <t>Proverbs 23:11</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
@@ -8284,7 +8284,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>Proverbs 23:1216</t>
+          <t>Proverbs 23:12</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
@@ -8296,7 +8296,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>Proverbs 23:1316</t>
+          <t>Proverbs 23:13</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
@@ -8308,7 +8308,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>Proverbs 23:1416</t>
+          <t>Proverbs 23:14</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
@@ -8320,7 +8320,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>Proverbs 23:1516</t>
+          <t>Proverbs 23:15</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
@@ -8332,7 +8332,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>Proverbs 23:1616</t>
+          <t>Proverbs 23:16</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
@@ -8344,7 +8344,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>Proverbs 23:1716</t>
+          <t>Proverbs 23:17</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
@@ -8356,7 +8356,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>Proverbs 23:1816</t>
+          <t>Proverbs 23:18</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
@@ -8368,7 +8368,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>Proverbs 23:1916</t>
+          <t>Proverbs 23:19</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
@@ -8380,7 +8380,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>Proverbs 23:2016</t>
+          <t>Proverbs 23:20</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
@@ -8392,7 +8392,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>Proverbs 23:2116</t>
+          <t>Proverbs 23:21</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
@@ -8404,7 +8404,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>Proverbs 23:2216</t>
+          <t>Proverbs 23:22</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
@@ -8416,7 +8416,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>Proverbs 23:2316</t>
+          <t>Proverbs 23:23</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
@@ -8428,7 +8428,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>Proverbs 23:2416</t>
+          <t>Proverbs 23:24</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
@@ -8440,7 +8440,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>Proverbs 23:2516</t>
+          <t>Proverbs 23:25</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
@@ -8452,7 +8452,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>Proverbs 23:2616</t>
+          <t>Proverbs 23:26</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
@@ -8464,7 +8464,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>Proverbs 23:2716</t>
+          <t>Proverbs 23:27</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
@@ -8476,7 +8476,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>Proverbs 23:2816</t>
+          <t>Proverbs 23:28</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
@@ -8488,7 +8488,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>Proverbs 23:2916</t>
+          <t>Proverbs 23:29</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
@@ -8500,7 +8500,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>Proverbs 23:3016</t>
+          <t>Proverbs 23:30</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
@@ -8512,7 +8512,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>Proverbs 23:3116</t>
+          <t>Proverbs 23:31</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
@@ -8524,7 +8524,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>Proverbs 23:3216</t>
+          <t>Proverbs 23:32</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
@@ -8536,7 +8536,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>Proverbs 23:3316</t>
+          <t>Proverbs 23:33</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
@@ -8548,7 +8548,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>Proverbs 23:3416</t>
+          <t>Proverbs 23:34</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
@@ -8560,7 +8560,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>Proverbs 23:3516</t>
+          <t>Proverbs 23:35</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -8572,7 +8572,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>Proverbs 24:116</t>
+          <t>Proverbs 24:1</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
@@ -8584,7 +8584,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>Proverbs 24:216</t>
+          <t>Proverbs 24:2</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
@@ -8596,7 +8596,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>Proverbs 24:316</t>
+          <t>Proverbs 24:3</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
@@ -8608,7 +8608,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>Proverbs 24:416</t>
+          <t>Proverbs 24:4</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
@@ -8620,7 +8620,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>Proverbs 24:516</t>
+          <t>Proverbs 24:5</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -8632,7 +8632,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>Proverbs 24:616</t>
+          <t>Proverbs 24:6</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
@@ -8644,7 +8644,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>Proverbs 24:716</t>
+          <t>Proverbs 24:7</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
@@ -8656,7 +8656,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>Proverbs 24:816</t>
+          <t>Proverbs 24:8</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
@@ -8668,7 +8668,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>Proverbs 24:916</t>
+          <t>Proverbs 24:9</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
@@ -8680,7 +8680,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>Proverbs 24:1016</t>
+          <t>Proverbs 24:10</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
@@ -8692,7 +8692,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>Proverbs 24:1116</t>
+          <t>Proverbs 24:11</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
@@ -8704,7 +8704,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>Proverbs 24:1216</t>
+          <t>Proverbs 24:12</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
@@ -8716,7 +8716,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>Proverbs 24:1316</t>
+          <t>Proverbs 24:13</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
@@ -8728,7 +8728,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>Proverbs 24:1416</t>
+          <t>Proverbs 24:14</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -8740,7 +8740,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>Proverbs 24:1516</t>
+          <t>Proverbs 24:15</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
@@ -8752,7 +8752,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>Proverbs 24:1616</t>
+          <t>Proverbs 24:16</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -8764,7 +8764,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>Proverbs 24:1716</t>
+          <t>Proverbs 24:17</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
@@ -8776,7 +8776,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>Proverbs 24:1816</t>
+          <t>Proverbs 24:18</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
@@ -8788,7 +8788,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>Proverbs 24:1916</t>
+          <t>Proverbs 24:19</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -8800,7 +8800,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>Proverbs 24:2016</t>
+          <t>Proverbs 24:20</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
@@ -8812,7 +8812,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>Proverbs 24:2116</t>
+          <t>Proverbs 24:21</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
@@ -8824,7 +8824,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>Proverbs 24:2216</t>
+          <t>Proverbs 24:22</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
@@ -8836,7 +8836,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>Proverbs 24:2316</t>
+          <t>Proverbs 24:23</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
@@ -8848,7 +8848,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>Proverbs 24:2416</t>
+          <t>Proverbs 24:24</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
@@ -8860,7 +8860,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>Proverbs 24:2516</t>
+          <t>Proverbs 24:25</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
@@ -8872,7 +8872,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>Proverbs 24:2616</t>
+          <t>Proverbs 24:26</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
@@ -8884,7 +8884,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>Proverbs 24:2716</t>
+          <t>Proverbs 24:27</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -8896,7 +8896,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>Proverbs 24:2816</t>
+          <t>Proverbs 24:28</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
@@ -8908,7 +8908,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>Proverbs 24:2916</t>
+          <t>Proverbs 24:29</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
@@ -8920,7 +8920,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>Proverbs 24:3016</t>
+          <t>Proverbs 24:30</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
@@ -8932,7 +8932,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>Proverbs 24:3116</t>
+          <t>Proverbs 24:31</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
@@ -8944,7 +8944,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>Proverbs 24:3216</t>
+          <t>Proverbs 24:32</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
@@ -8956,7 +8956,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>Proverbs 24:3316</t>
+          <t>Proverbs 24:33</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
@@ -8968,7 +8968,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>Proverbs 24:3416</t>
+          <t>Proverbs 24:34</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
@@ -8980,7 +8980,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>Proverbs 25:116</t>
+          <t>Proverbs 25:1</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
@@ -8992,7 +8992,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>Proverbs 25:216</t>
+          <t>Proverbs 25:2</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
@@ -9004,7 +9004,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>Proverbs 25:316</t>
+          <t>Proverbs 25:3</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
@@ -9016,7 +9016,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>Proverbs 25:416</t>
+          <t>Proverbs 25:4</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
@@ -9028,7 +9028,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>Proverbs 25:516</t>
+          <t>Proverbs 25:5</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
@@ -9040,7 +9040,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>Proverbs 25:616</t>
+          <t>Proverbs 25:6</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
@@ -9052,7 +9052,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>Proverbs 25:716</t>
+          <t>Proverbs 25:7</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
@@ -9064,7 +9064,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>Proverbs 25:816</t>
+          <t>Proverbs 25:8</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
@@ -9076,7 +9076,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>Proverbs 25:916</t>
+          <t>Proverbs 25:9</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
@@ -9088,7 +9088,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>Proverbs 25:1016</t>
+          <t>Proverbs 25:10</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
@@ -9100,7 +9100,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>Proverbs 25:1116</t>
+          <t>Proverbs 25:11</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
@@ -9112,7 +9112,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>Proverbs 25:1216</t>
+          <t>Proverbs 25:12</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
@@ -9124,7 +9124,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>Proverbs 25:1316</t>
+          <t>Proverbs 25:13</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
@@ -9136,7 +9136,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>Proverbs 25:1416</t>
+          <t>Proverbs 25:14</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
@@ -9148,7 +9148,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>Proverbs 25:1516</t>
+          <t>Proverbs 25:15</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
@@ -9160,7 +9160,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>Proverbs 25:1616</t>
+          <t>Proverbs 25:16</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
@@ -9172,7 +9172,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>Proverbs 25:1716</t>
+          <t>Proverbs 25:17</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
@@ -9184,7 +9184,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>Proverbs 25:1816</t>
+          <t>Proverbs 25:18</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
@@ -9196,7 +9196,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>Proverbs 25:1916</t>
+          <t>Proverbs 25:19</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
@@ -9208,7 +9208,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>Proverbs 25:2016</t>
+          <t>Proverbs 25:20</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
@@ -9220,7 +9220,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>Proverbs 25:2116</t>
+          <t>Proverbs 25:21</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
@@ -9232,7 +9232,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>Proverbs 25:2216</t>
+          <t>Proverbs 25:22</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
@@ -9244,7 +9244,7 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>Proverbs 25:2316</t>
+          <t>Proverbs 25:23</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
@@ -9256,7 +9256,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>Proverbs 25:2416</t>
+          <t>Proverbs 25:24</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
@@ -9268,7 +9268,7 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>Proverbs 25:2516</t>
+          <t>Proverbs 25:25</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
@@ -9280,7 +9280,7 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>Proverbs 25:2616</t>
+          <t>Proverbs 25:26</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
@@ -9292,7 +9292,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>Proverbs 25:2716</t>
+          <t>Proverbs 25:27</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
@@ -9304,7 +9304,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>Proverbs 25:2816</t>
+          <t>Proverbs 25:28</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
@@ -9316,7 +9316,7 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>Proverbs 26:116</t>
+          <t>Proverbs 26:1</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
@@ -9328,7 +9328,7 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>Proverbs 26:216</t>
+          <t>Proverbs 26:2</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
@@ -9340,7 +9340,7 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>Proverbs 26:316</t>
+          <t>Proverbs 26:3</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
@@ -9352,7 +9352,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>Proverbs 26:416</t>
+          <t>Proverbs 26:4</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
@@ -9364,7 +9364,7 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>Proverbs 26:516</t>
+          <t>Proverbs 26:5</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
@@ -9376,7 +9376,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>Proverbs 26:616</t>
+          <t>Proverbs 26:6</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
@@ -9388,7 +9388,7 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>Proverbs 26:716</t>
+          <t>Proverbs 26:7</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
@@ -9400,7 +9400,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>Proverbs 26:816</t>
+          <t>Proverbs 26:8</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
@@ -9412,7 +9412,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>Proverbs 26:916</t>
+          <t>Proverbs 26:9</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
@@ -9424,7 +9424,7 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>Proverbs 26:1016</t>
+          <t>Proverbs 26:10</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
@@ -9436,7 +9436,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>Proverbs 26:1116</t>
+          <t>Proverbs 26:11</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
@@ -9448,7 +9448,7 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>Proverbs 26:1216</t>
+          <t>Proverbs 26:12</t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
@@ -9460,7 +9460,7 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>Proverbs 26:1316</t>
+          <t>Proverbs 26:13</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
@@ -9472,7 +9472,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>Proverbs 26:1416</t>
+          <t>Proverbs 26:14</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
@@ -9484,7 +9484,7 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>Proverbs 26:1516</t>
+          <t>Proverbs 26:15</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
@@ -9496,7 +9496,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>Proverbs 26:1616</t>
+          <t>Proverbs 26:16</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
@@ -9508,7 +9508,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>Proverbs 26:1716</t>
+          <t>Proverbs 26:17</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
@@ -9520,7 +9520,7 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>Proverbs 26:1816</t>
+          <t>Proverbs 26:18</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
@@ -9532,7 +9532,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>Proverbs 26:1916</t>
+          <t>Proverbs 26:19</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
@@ -9544,7 +9544,7 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>Proverbs 26:2016</t>
+          <t>Proverbs 26:20</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
@@ -9556,7 +9556,7 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>Proverbs 26:2116</t>
+          <t>Proverbs 26:21</t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
@@ -9568,7 +9568,7 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>Proverbs 26:2216</t>
+          <t>Proverbs 26:22</t>
         </is>
       </c>
       <c r="B762" t="inlineStr">
@@ -9580,7 +9580,7 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>Proverbs 26:2316</t>
+          <t>Proverbs 26:23</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
@@ -9592,7 +9592,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>Proverbs 26:2416</t>
+          <t>Proverbs 26:24</t>
         </is>
       </c>
       <c r="B764" t="inlineStr">
@@ -9604,7 +9604,7 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>Proverbs 26:2516</t>
+          <t>Proverbs 26:25</t>
         </is>
       </c>
       <c r="B765" t="inlineStr">
@@ -9616,7 +9616,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>Proverbs 26:2616</t>
+          <t>Proverbs 26:26</t>
         </is>
       </c>
       <c r="B766" t="inlineStr">
@@ -9628,7 +9628,7 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>Proverbs 26:2716</t>
+          <t>Proverbs 26:27</t>
         </is>
       </c>
       <c r="B767" t="inlineStr">
@@ -9640,7 +9640,7 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>Proverbs 26:2816</t>
+          <t>Proverbs 26:28</t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
@@ -9652,7 +9652,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>Proverbs 27:116</t>
+          <t>Proverbs 27:1</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
@@ -9664,7 +9664,7 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>Proverbs 27:216</t>
+          <t>Proverbs 27:2</t>
         </is>
       </c>
       <c r="B770" t="inlineStr">
@@ -9676,7 +9676,7 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>Proverbs 27:316</t>
+          <t>Proverbs 27:3</t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
@@ -9688,7 +9688,7 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>Proverbs 27:416</t>
+          <t>Proverbs 27:4</t>
         </is>
       </c>
       <c r="B772" t="inlineStr">
@@ -9700,7 +9700,7 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>Proverbs 27:516</t>
+          <t>Proverbs 27:5</t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
@@ -9712,7 +9712,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>Proverbs 27:616</t>
+          <t>Proverbs 27:6</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
@@ -9724,7 +9724,7 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>Proverbs 27:716</t>
+          <t>Proverbs 27:7</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
@@ -9736,7 +9736,7 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>Proverbs 27:816</t>
+          <t>Proverbs 27:8</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
@@ -9748,7 +9748,7 @@
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>Proverbs 27:916</t>
+          <t>Proverbs 27:9</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
@@ -9760,7 +9760,7 @@
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>Proverbs 27:1016</t>
+          <t>Proverbs 27:10</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
@@ -9772,7 +9772,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>Proverbs 27:1116</t>
+          <t>Proverbs 27:11</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
@@ -9784,7 +9784,7 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>Proverbs 27:1216</t>
+          <t>Proverbs 27:12</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
@@ -9796,7 +9796,7 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>Proverbs 27:1316</t>
+          <t>Proverbs 27:13</t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
@@ -9808,7 +9808,7 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>Proverbs 27:1416</t>
+          <t>Proverbs 27:14</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
@@ -9820,7 +9820,7 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>Proverbs 27:1516</t>
+          <t>Proverbs 27:15</t>
         </is>
       </c>
       <c r="B783" t="inlineStr">
@@ -9832,7 +9832,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>Proverbs 27:1616</t>
+          <t>Proverbs 27:16</t>
         </is>
       </c>
       <c r="B784" t="inlineStr">
@@ -9844,7 +9844,7 @@
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>Proverbs 27:1716</t>
+          <t>Proverbs 27:17</t>
         </is>
       </c>
       <c r="B785" t="inlineStr">
@@ -9856,7 +9856,7 @@
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>Proverbs 27:1816</t>
+          <t>Proverbs 27:18</t>
         </is>
       </c>
       <c r="B786" t="inlineStr">
@@ -9868,7 +9868,7 @@
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>Proverbs 27:1916</t>
+          <t>Proverbs 27:19</t>
         </is>
       </c>
       <c r="B787" t="inlineStr">
@@ -9880,7 +9880,7 @@
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>Proverbs 27:2016</t>
+          <t>Proverbs 27:20</t>
         </is>
       </c>
       <c r="B788" t="inlineStr">
@@ -9892,7 +9892,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>Proverbs 27:2116</t>
+          <t>Proverbs 27:21</t>
         </is>
       </c>
       <c r="B789" t="inlineStr">
@@ -9904,7 +9904,7 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>Proverbs 27:2216</t>
+          <t>Proverbs 27:22</t>
         </is>
       </c>
       <c r="B790" t="inlineStr">
@@ -9916,7 +9916,7 @@
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>Proverbs 27:2316</t>
+          <t>Proverbs 27:23</t>
         </is>
       </c>
       <c r="B791" t="inlineStr">
@@ -9928,7 +9928,7 @@
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>Proverbs 27:2416</t>
+          <t>Proverbs 27:24</t>
         </is>
       </c>
       <c r="B792" t="inlineStr">
@@ -9940,7 +9940,7 @@
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>Proverbs 27:2516</t>
+          <t>Proverbs 27:25</t>
         </is>
       </c>
       <c r="B793" t="inlineStr">
@@ -9952,7 +9952,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>Proverbs 27:2616</t>
+          <t>Proverbs 27:26</t>
         </is>
       </c>
       <c r="B794" t="inlineStr">
@@ -9964,7 +9964,7 @@
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>Proverbs 27:2716</t>
+          <t>Proverbs 27:27</t>
         </is>
       </c>
       <c r="B795" t="inlineStr">
@@ -9976,7 +9976,7 @@
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>Proverbs 28:116</t>
+          <t>Proverbs 28:1</t>
         </is>
       </c>
       <c r="B796" t="inlineStr">
@@ -9988,7 +9988,7 @@
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>Proverbs 28:216</t>
+          <t>Proverbs 28:2</t>
         </is>
       </c>
       <c r="B797" t="inlineStr">
@@ -10000,7 +10000,7 @@
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>Proverbs 28:316</t>
+          <t>Proverbs 28:3</t>
         </is>
       </c>
       <c r="B798" t="inlineStr">
@@ -10012,7 +10012,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>Proverbs 28:416</t>
+          <t>Proverbs 28:4</t>
         </is>
       </c>
       <c r="B799" t="inlineStr">
@@ -10024,7 +10024,7 @@
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>Proverbs 28:516</t>
+          <t>Proverbs 28:5</t>
         </is>
       </c>
       <c r="B800" t="inlineStr">
@@ -10036,7 +10036,7 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>Proverbs 28:616</t>
+          <t>Proverbs 28:6</t>
         </is>
       </c>
       <c r="B801" t="inlineStr">
@@ -10048,7 +10048,7 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>Proverbs 28:716</t>
+          <t>Proverbs 28:7</t>
         </is>
       </c>
       <c r="B802" t="inlineStr">
@@ -10060,7 +10060,7 @@
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>Proverbs 28:816</t>
+          <t>Proverbs 28:8</t>
         </is>
       </c>
       <c r="B803" t="inlineStr">
@@ -10072,7 +10072,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>Proverbs 28:916</t>
+          <t>Proverbs 28:9</t>
         </is>
       </c>
       <c r="B804" t="inlineStr">
@@ -10084,7 +10084,7 @@
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>Proverbs 28:1016</t>
+          <t>Proverbs 28:10</t>
         </is>
       </c>
       <c r="B805" t="inlineStr">
@@ -10096,7 +10096,7 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>Proverbs 28:1116</t>
+          <t>Proverbs 28:11</t>
         </is>
       </c>
       <c r="B806" t="inlineStr">
@@ -10108,7 +10108,7 @@
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>Proverbs 28:1216</t>
+          <t>Proverbs 28:12</t>
         </is>
       </c>
       <c r="B807" t="inlineStr">
@@ -10120,7 +10120,7 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>Proverbs 28:1316</t>
+          <t>Proverbs 28:13</t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
@@ -10132,7 +10132,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>Proverbs 28:1416</t>
+          <t>Proverbs 28:14</t>
         </is>
       </c>
       <c r="B809" t="inlineStr">
@@ -10144,7 +10144,7 @@
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>Proverbs 28:1516</t>
+          <t>Proverbs 28:15</t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
@@ -10156,7 +10156,7 @@
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>Proverbs 28:1616</t>
+          <t>Proverbs 28:16</t>
         </is>
       </c>
       <c r="B811" t="inlineStr">
@@ -10168,7 +10168,7 @@
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>Proverbs 28:1716</t>
+          <t>Proverbs 28:17</t>
         </is>
       </c>
       <c r="B812" t="inlineStr">
@@ -10180,7 +10180,7 @@
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>Proverbs 28:1816</t>
+          <t>Proverbs 28:18</t>
         </is>
       </c>
       <c r="B813" t="inlineStr">
@@ -10192,7 +10192,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>Proverbs 28:1916</t>
+          <t>Proverbs 28:19</t>
         </is>
       </c>
       <c r="B814" t="inlineStr">
@@ -10204,7 +10204,7 @@
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>Proverbs 28:2016</t>
+          <t>Proverbs 28:20</t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
@@ -10216,7 +10216,7 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>Proverbs 28:2116</t>
+          <t>Proverbs 28:21</t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
@@ -10228,7 +10228,7 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>Proverbs 28:2216</t>
+          <t>Proverbs 28:22</t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
@@ -10240,7 +10240,7 @@
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>Proverbs 28:2316</t>
+          <t>Proverbs 28:23</t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
@@ -10252,7 +10252,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>Proverbs 28:2416</t>
+          <t>Proverbs 28:24</t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
@@ -10264,7 +10264,7 @@
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>Proverbs 28:2516</t>
+          <t>Proverbs 28:25</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
@@ -10276,7 +10276,7 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>Proverbs 28:2616</t>
+          <t>Proverbs 28:26</t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
@@ -10288,7 +10288,7 @@
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>Proverbs 28:2716</t>
+          <t>Proverbs 28:27</t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
@@ -10300,7 +10300,7 @@
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>Proverbs 28:2816</t>
+          <t>Proverbs 28:28</t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
@@ -10312,7 +10312,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>Proverbs 29:116</t>
+          <t>Proverbs 29:1</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
@@ -10324,7 +10324,7 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>Proverbs 29:216</t>
+          <t>Proverbs 29:2</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
@@ -10336,7 +10336,7 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>Proverbs 29:316</t>
+          <t>Proverbs 29:3</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
@@ -10348,7 +10348,7 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>Proverbs 29:416</t>
+          <t>Proverbs 29:4</t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
@@ -10360,7 +10360,7 @@
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>Proverbs 29:516</t>
+          <t>Proverbs 29:5</t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
@@ -10372,7 +10372,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>Proverbs 29:616</t>
+          <t>Proverbs 29:6</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
@@ -10384,7 +10384,7 @@
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>Proverbs 29:716</t>
+          <t>Proverbs 29:7</t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
@@ -10396,7 +10396,7 @@
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>Proverbs 29:816</t>
+          <t>Proverbs 29:8</t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
@@ -10408,7 +10408,7 @@
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>Proverbs 29:916</t>
+          <t>Proverbs 29:9</t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
@@ -10420,7 +10420,7 @@
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>Proverbs 29:1016</t>
+          <t>Proverbs 29:10</t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
@@ -10432,7 +10432,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>Proverbs 29:1116</t>
+          <t>Proverbs 29:11</t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
@@ -10444,7 +10444,7 @@
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>Proverbs 29:1216</t>
+          <t>Proverbs 29:12</t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
@@ -10456,7 +10456,7 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>Proverbs 29:1316</t>
+          <t>Proverbs 29:13</t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
@@ -10468,7 +10468,7 @@
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>Proverbs 29:1416</t>
+          <t>Proverbs 29:14</t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
@@ -10480,7 +10480,7 @@
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>Proverbs 29:1516</t>
+          <t>Proverbs 29:15</t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
@@ -10492,7 +10492,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>Proverbs 29:1616</t>
+          <t>Proverbs 29:16</t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
@@ -10504,7 +10504,7 @@
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>Proverbs 29:1716</t>
+          <t>Proverbs 29:17</t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
@@ -10516,7 +10516,7 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>Proverbs 29:1816</t>
+          <t>Proverbs 29:18</t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
@@ -10528,7 +10528,7 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>Proverbs 29:1916</t>
+          <t>Proverbs 29:19</t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
@@ -10540,7 +10540,7 @@
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>Proverbs 29:2016</t>
+          <t>Proverbs 29:20</t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
@@ -10552,7 +10552,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>Proverbs 29:2116</t>
+          <t>Proverbs 29:21</t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
@@ -10564,7 +10564,7 @@
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>Proverbs 29:2216</t>
+          <t>Proverbs 29:22</t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
@@ -10576,7 +10576,7 @@
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>Proverbs 29:2316</t>
+          <t>Proverbs 29:23</t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
@@ -10588,7 +10588,7 @@
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>Proverbs 29:2416</t>
+          <t>Proverbs 29:24</t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
@@ -10600,7 +10600,7 @@
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>Proverbs 29:2516</t>
+          <t>Proverbs 29:25</t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
@@ -10612,7 +10612,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>Proverbs 29:2616</t>
+          <t>Proverbs 29:26</t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
@@ -10624,7 +10624,7 @@
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>Proverbs 29:2716</t>
+          <t>Proverbs 29:27</t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
@@ -10636,7 +10636,7 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>Proverbs 30:116</t>
+          <t>Proverbs 30:1</t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
@@ -10648,7 +10648,7 @@
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>Proverbs 30:216</t>
+          <t>Proverbs 30:2</t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
@@ -10660,7 +10660,7 @@
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>Proverbs 30:316</t>
+          <t>Proverbs 30:3</t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
@@ -10672,7 +10672,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>Proverbs 30:416</t>
+          <t>Proverbs 30:4</t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
@@ -10684,7 +10684,7 @@
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>Proverbs 30:516</t>
+          <t>Proverbs 30:5</t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
@@ -10696,7 +10696,7 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>Proverbs 30:616</t>
+          <t>Proverbs 30:6</t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
@@ -10708,7 +10708,7 @@
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>Proverbs 30:716</t>
+          <t>Proverbs 30:7</t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
@@ -10720,7 +10720,7 @@
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>Proverbs 30:816</t>
+          <t>Proverbs 30:8</t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
@@ -10732,7 +10732,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>Proverbs 30:916</t>
+          <t>Proverbs 30:9</t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
@@ -10744,7 +10744,7 @@
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>Proverbs 30:1016</t>
+          <t>Proverbs 30:10</t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
@@ -10756,7 +10756,7 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>Proverbs 30:1116</t>
+          <t>Proverbs 30:11</t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
@@ -10768,7 +10768,7 @@
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>Proverbs 30:1216</t>
+          <t>Proverbs 30:12</t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
@@ -10780,7 +10780,7 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>Proverbs 30:1316</t>
+          <t>Proverbs 30:13</t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
@@ -10792,7 +10792,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>Proverbs 30:1416</t>
+          <t>Proverbs 30:14</t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
@@ -10804,7 +10804,7 @@
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>Proverbs 30:1516</t>
+          <t>Proverbs 30:15</t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
@@ -10816,7 +10816,7 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>Proverbs 30:1616</t>
+          <t>Proverbs 30:16</t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
@@ -10828,7 +10828,7 @@
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>Proverbs 30:1716</t>
+          <t>Proverbs 30:17</t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
@@ -10840,7 +10840,7 @@
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>Proverbs 30:1816</t>
+          <t>Proverbs 30:18</t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
@@ -10852,7 +10852,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>Proverbs 30:1916</t>
+          <t>Proverbs 30:19</t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
@@ -10864,7 +10864,7 @@
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>Proverbs 30:2016</t>
+          <t>Proverbs 30:20</t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
@@ -10876,7 +10876,7 @@
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>Proverbs 30:2116</t>
+          <t>Proverbs 30:21</t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
@@ -10888,7 +10888,7 @@
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>Proverbs 30:2216</t>
+          <t>Proverbs 30:22</t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
@@ -10900,7 +10900,7 @@
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>Proverbs 30:2316</t>
+          <t>Proverbs 30:23</t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
@@ -10912,7 +10912,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>Proverbs 30:2416</t>
+          <t>Proverbs 30:24</t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
@@ -10924,7 +10924,7 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>Proverbs 30:2516</t>
+          <t>Proverbs 30:25</t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
@@ -10936,7 +10936,7 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>Proverbs 30:2616</t>
+          <t>Proverbs 30:26</t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
@@ -10948,7 +10948,7 @@
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>Proverbs 30:2716</t>
+          <t>Proverbs 30:27</t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
@@ -10960,7 +10960,7 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>Proverbs 30:2816</t>
+          <t>Proverbs 30:28</t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
@@ -10972,7 +10972,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>Proverbs 30:2916</t>
+          <t>Proverbs 30:29</t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
@@ -10984,7 +10984,7 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>Proverbs 30:3016</t>
+          <t>Proverbs 30:30</t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
@@ -10996,7 +10996,7 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>Proverbs 30:3116</t>
+          <t>Proverbs 30:31</t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
@@ -11008,7 +11008,7 @@
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>Proverbs 30:3216</t>
+          <t>Proverbs 30:32</t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
@@ -11020,7 +11020,7 @@
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>Proverbs 30:3316</t>
+          <t>Proverbs 30:33</t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
@@ -11032,7 +11032,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>Proverbs 31:116</t>
+          <t>Proverbs 31:1</t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
@@ -11044,7 +11044,7 @@
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>Proverbs 31:216</t>
+          <t>Proverbs 31:2</t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
@@ -11056,7 +11056,7 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>Proverbs 31:316</t>
+          <t>Proverbs 31:3</t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
@@ -11068,7 +11068,7 @@
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>Proverbs 31:416</t>
+          <t>Proverbs 31:4</t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
@@ -11080,7 +11080,7 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>Proverbs 31:516</t>
+          <t>Proverbs 31:5</t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
@@ -11092,7 +11092,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>Proverbs 31:616</t>
+          <t>Proverbs 31:6</t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
@@ -11104,7 +11104,7 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>Proverbs 31:716</t>
+          <t>Proverbs 31:7</t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
@@ -11116,7 +11116,7 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>Proverbs 31:816</t>
+          <t>Proverbs 31:8</t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
@@ -11128,7 +11128,7 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>Proverbs 31:916</t>
+          <t>Proverbs 31:9</t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
@@ -11140,7 +11140,7 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>Proverbs 31:1116</t>
+          <t>Proverbs 31:11</t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
@@ -11152,7 +11152,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>Proverbs 31:1216</t>
+          <t>Proverbs 31:12</t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
@@ -11164,7 +11164,7 @@
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>Proverbs 31:1316</t>
+          <t>Proverbs 31:13</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
@@ -11176,7 +11176,7 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>Proverbs 31:1416</t>
+          <t>Proverbs 31:14</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
@@ -11188,7 +11188,7 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>Proverbs 31:1516</t>
+          <t>Proverbs 31:15</t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
@@ -11200,7 +11200,7 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>Proverbs 31:1616</t>
+          <t>Proverbs 31:16</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
@@ -11212,7 +11212,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>Proverbs 31:1716</t>
+          <t>Proverbs 31:17</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
@@ -11224,7 +11224,7 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>Proverbs 31:1816</t>
+          <t>Proverbs 31:18</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
@@ -11236,7 +11236,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>Proverbs 31:1916</t>
+          <t>Proverbs 31:19</t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
@@ -11248,7 +11248,7 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>Proverbs 31:2016</t>
+          <t>Proverbs 31:20</t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
@@ -11260,7 +11260,7 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>Proverbs 31:2116</t>
+          <t>Proverbs 31:21</t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
@@ -11272,7 +11272,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>Proverbs 31:2216</t>
+          <t>Proverbs 31:22</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
@@ -11284,7 +11284,7 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>Proverbs 31:2316</t>
+          <t>Proverbs 31:23</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
@@ -11296,7 +11296,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>Proverbs 31:2416</t>
+          <t>Proverbs 31:24</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
@@ -11308,7 +11308,7 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>Proverbs 31:2516</t>
+          <t>Proverbs 31:25</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
@@ -11320,7 +11320,7 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>Proverbs 31:2616</t>
+          <t>Proverbs 31:26</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
@@ -11332,7 +11332,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>Proverbs 31:2716</t>
+          <t>Proverbs 31:27</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
@@ -11344,7 +11344,7 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>Proverbs 31:2816</t>
+          <t>Proverbs 31:28</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
@@ -11356,7 +11356,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>Proverbs 31:2916</t>
+          <t>Proverbs 31:29</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
@@ -11368,7 +11368,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>Proverbs 31:3016</t>
+          <t>Proverbs 31:30</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
@@ -11380,7 +11380,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>Proverbs 31:3116</t>
+          <t>Proverbs 31:31</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
